--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -167,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -216,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -289,30 +289,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -437,130 +413,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -870,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +906,7 @@
     <col min="4" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -897,39 +919,53 @@
       <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1" s="35">
         <v>43139</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1" s="36">
         <v>43140</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="36">
         <v>43143</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H1" s="36">
         <v>43144</v>
       </c>
-      <c r="I1" s="26">
+      <c r="I1" s="36">
         <v>43145</v>
       </c>
-      <c r="J1" s="26">
+      <c r="J1" s="36">
         <v>43146</v>
       </c>
-      <c r="K1" s="26">
+      <c r="K1" s="36">
         <v>43147</v>
       </c>
-      <c r="L1" s="26">
+      <c r="L1" s="36">
         <v>43150</v>
       </c>
-      <c r="M1" s="26">
+      <c r="M1" s="36">
         <v>43151</v>
       </c>
-      <c r="N1" s="27">
+      <c r="N1" s="36">
         <v>43152</v>
       </c>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="36">
+        <v>43153</v>
+      </c>
+      <c r="P1" s="36">
+        <v>43154</v>
+      </c>
+      <c r="Q1" s="36">
+        <v>43157</v>
+      </c>
+      <c r="R1" s="36">
+        <v>43158</v>
+      </c>
+      <c r="S1" s="37">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -942,12 +978,23 @@
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="41"/>
+    </row>
+    <row r="3" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -960,37 +1007,41 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="23">
         <v>70</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="22">
         <v>2</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1003,12 +1054,14 @@
       <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="14"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1021,37 +1074,43 @@
       <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="E6" s="14"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="28">
         <v>40</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="36"/>
-    </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1064,13 +1123,15 @@
       <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="14"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1083,13 +1144,15 @@
       <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="14"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1102,13 +1165,15 @@
       <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="14"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1121,38 +1186,44 @@
       <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="E11" s="14"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="23">
         <v>40</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="22">
         <v>4</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1165,12 +1236,16 @@
       <c r="D13" s="6">
         <v>4</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="14"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -1183,12 +1258,16 @@
       <c r="D14" s="6">
         <v>4</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="14"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1201,12 +1280,16 @@
       <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="14"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1219,12 +1302,16 @@
       <c r="D16" s="6">
         <v>4</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="14"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -1237,37 +1324,45 @@
       <c r="D17" s="6">
         <v>4</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="E17" s="14"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="28">
         <v>10</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="27">
         <v>4</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="36"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
       <c r="N18" s="34"/>
-      <c r="O18" s="36"/>
-    </row>
-    <row r="19" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="28"/>
+    </row>
+    <row r="19" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1280,12 +1375,16 @@
       <c r="D19" s="6">
         <v>5</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="14"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -1298,12 +1397,16 @@
       <c r="D20" s="6">
         <v>5</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="14"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -1316,12 +1419,16 @@
       <c r="D21" s="6">
         <v>5</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="14"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
@@ -1334,12 +1441,16 @@
       <c r="D22" s="6">
         <v>5</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="14"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="1:19" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>43</v>
       </c>
@@ -1352,17 +1463,21 @@
       <c r="D23" s="9">
         <v>5</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="4"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
     </row>
   </sheetData>
   <sortState ref="A2:D23">

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -448,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,13 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,7 +889,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,49 +914,49 @@
         <v>47</v>
       </c>
       <c r="E1" s="35">
-        <v>43139</v>
-      </c>
-      <c r="F1" s="36">
-        <v>43140</v>
-      </c>
-      <c r="G1" s="36">
         <v>43143</v>
       </c>
-      <c r="H1" s="36">
+      <c r="F1" s="35">
         <v>43144</v>
       </c>
-      <c r="I1" s="36">
+      <c r="G1" s="35">
         <v>43145</v>
       </c>
-      <c r="J1" s="36">
+      <c r="H1" s="35">
         <v>43146</v>
       </c>
-      <c r="K1" s="36">
+      <c r="I1" s="35">
         <v>43147</v>
       </c>
-      <c r="L1" s="36">
+      <c r="J1" s="35">
         <v>43150</v>
       </c>
-      <c r="M1" s="36">
+      <c r="K1" s="35">
         <v>43151</v>
       </c>
-      <c r="N1" s="36">
+      <c r="L1" s="35">
         <v>43152</v>
       </c>
-      <c r="O1" s="36">
+      <c r="M1" s="35">
         <v>43153</v>
       </c>
-      <c r="P1" s="36">
+      <c r="N1" s="35">
         <v>43154</v>
       </c>
-      <c r="Q1" s="36">
+      <c r="O1" s="35">
         <v>43157</v>
       </c>
-      <c r="R1" s="36">
+      <c r="P1" s="35">
         <v>43158</v>
       </c>
-      <c r="S1" s="37">
+      <c r="Q1" s="35">
         <v>43159</v>
+      </c>
+      <c r="R1" s="35">
+        <v>43160</v>
+      </c>
+      <c r="S1" s="35">
+        <v>43161</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -978,21 +972,21 @@
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="41"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1027,7 +1021,7 @@
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
@@ -1055,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="G5" s="43"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -1075,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="G6" s="43"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -1096,7 +1090,7 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="44"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
@@ -1124,8 +1118,8 @@
         <v>3</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -1145,8 +1139,8 @@
         <v>3</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
@@ -1166,8 +1160,8 @@
         <v>3</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -1187,8 +1181,8 @@
         <v>3</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -1213,9 +1207,9 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
@@ -1237,9 +1231,9 @@
         <v>4</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
@@ -1259,9 +1253,9 @@
         <v>4</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
@@ -1281,9 +1275,9 @@
         <v>4</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
@@ -1303,9 +1297,9 @@
         <v>4</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
@@ -1325,9 +1319,9 @@
         <v>4</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
@@ -1352,9 +1346,9 @@
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="34"/>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
@@ -1376,10 +1370,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
@@ -1398,10 +1392,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
@@ -1420,10 +1414,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
@@ -1442,10 +1436,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
@@ -1471,10 +1465,10 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -886,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +900,7 @@
     <col min="4" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -917,49 +917,50 @@
         <v>43143</v>
       </c>
       <c r="F1" s="35">
-        <v>43144</v>
+        <v>43157</v>
       </c>
       <c r="G1" s="35">
-        <v>43145</v>
+        <v>43158</v>
       </c>
       <c r="H1" s="35">
-        <v>43146</v>
+        <v>43159</v>
       </c>
       <c r="I1" s="35">
-        <v>43147</v>
+        <v>43160</v>
       </c>
       <c r="J1" s="35">
-        <v>43150</v>
+        <v>43161</v>
       </c>
       <c r="K1" s="35">
-        <v>43151</v>
+        <v>43164</v>
       </c>
       <c r="L1" s="35">
-        <v>43152</v>
+        <v>43165</v>
       </c>
       <c r="M1" s="35">
-        <v>43153</v>
+        <v>43166</v>
       </c>
       <c r="N1" s="35">
-        <v>43154</v>
+        <v>43167</v>
       </c>
       <c r="O1" s="35">
-        <v>43157</v>
+        <v>43168</v>
       </c>
       <c r="P1" s="35">
-        <v>43158</v>
+        <v>43171</v>
       </c>
       <c r="Q1" s="35">
-        <v>43159</v>
+        <v>43172</v>
       </c>
       <c r="R1" s="35">
-        <v>43160</v>
+        <v>43173</v>
       </c>
       <c r="S1" s="35">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43174</v>
+      </c>
+      <c r="T1" s="35"/>
+    </row>
+    <row r="2" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -988,7 +989,7 @@
       <c r="R2" s="38"/>
       <c r="S2" s="39"/>
     </row>
-    <row r="3" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1006,7 +1007,7 @@
       <c r="G3" s="12"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +1036,7 @@
       <c r="R4" s="25"/>
       <c r="S4" s="23"/>
     </row>
-    <row r="5" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1055,7 +1056,7 @@
       <c r="J5" s="15"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1075,7 +1076,7 @@
       <c r="J6" s="15"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>16</v>
       </c>
@@ -1104,7 +1105,7 @@
       <c r="R7" s="30"/>
       <c r="S7" s="28"/>
     </row>
-    <row r="8" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1125,7 +1126,7 @@
       <c r="M8" s="16"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1146,7 +1147,7 @@
       <c r="M9" s="16"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1167,7 +1168,7 @@
       <c r="M10" s="16"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1188,7 +1189,7 @@
       <c r="M11" s="16"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>21</v>
       </c>
@@ -1217,7 +1218,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="23"/>
     </row>
-    <row r="13" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1239,7 +1240,7 @@
       <c r="P13" s="17"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -1261,7 +1262,7 @@
       <c r="P14" s="17"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1284,7 @@
       <c r="P15" s="17"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
